--- a/Data_1/data14.xlsx
+++ b/Data_1/data14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
@@ -493,6 +503,12 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -507,18 +523,24 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -533,18 +555,24 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>22</v>
       </c>
     </row>
@@ -568,9 +596,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -582,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -597,6 +631,12 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>29</v>
       </c>
     </row>
@@ -608,21 +648,27 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -634,21 +680,27 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>26</v>
       </c>
     </row>
@@ -660,21 +712,27 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
         <v>28</v>
       </c>
     </row>
@@ -686,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -701,6 +759,12 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
         <v>13</v>
       </c>
     </row>
@@ -712,21 +776,27 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>35</v>
       </c>
     </row>
@@ -738,21 +808,27 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>46</v>
       </c>
     </row>
@@ -764,21 +840,27 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>60</v>
       </c>
     </row>
@@ -805,6 +887,12 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -819,18 +907,24 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -845,18 +939,24 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
         <v>46</v>
       </c>
     </row>
@@ -880,9 +980,15 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
         <v>66</v>
       </c>
     </row>
@@ -904,25 +1010,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>[8]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>[13]</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -936,7 +1052,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -946,25 +1062,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>d</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>abd</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>acd</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>abcd</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
